--- a/public/files/template/kepegawaian/bukupenjagaan_gaji.xlsx
+++ b/public/files/template/kepegawaian/bukupenjagaan_gaji.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>TAHUN [b.tahun]</t>
   </si>
@@ -53,12 +53,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>DAFTAR BUKU PENJAGAAN PANGKAT</t>
-  </si>
-  <si>
-    <t>Nama Pegawai / Tempat Tanggal Lahir / NIP</t>
-  </si>
-  <si>
     <t>Pangkat / Gol. Ruang</t>
   </si>
   <si>
@@ -110,10 +104,31 @@
     <t>[a.gajith_5]</t>
   </si>
   <si>
-    <t>Gaji</t>
-  </si>
-  <si>
     <t>[a.gaji_baru]</t>
+  </si>
+  <si>
+    <t>Nama Pegawai</t>
+  </si>
+  <si>
+    <t>NIP</t>
+  </si>
+  <si>
+    <t>Tempat, Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>[a.nip_nit]</t>
+  </si>
+  <si>
+    <t>[a.tmpt_tgl_lahir]</t>
+  </si>
+  <si>
+    <t>Gaji Pokok (Rp.)</t>
+  </si>
+  <si>
+    <t>DAFTAR BUKU PENJAGAAN KENAIKAN BERKALA</t>
+  </si>
+  <si>
+    <t>Kenaikan Gaji Berkala yang akan Datang</t>
   </si>
 </sst>
 </file>
@@ -137,11 +152,9 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -205,7 +218,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -224,18 +237,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,27 +246,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -606,83 +621,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="7"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="17"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="17"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="17"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -691,119 +727,239 @@
         <v>8</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="H9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6</v>
+      </c>
+      <c r="G12" s="6">
+        <v>7</v>
+      </c>
+      <c r="H12" s="6">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6">
+        <v>9</v>
+      </c>
+      <c r="J12" s="6">
+        <v>10</v>
+      </c>
+      <c r="K12" s="6">
+        <v>11</v>
+      </c>
+      <c r="L12" s="6">
         <v>12</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="M12" s="6">
         <v>13</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="N12" s="6">
+        <v>14</v>
+      </c>
+      <c r="O12" s="6">
+        <v>15</v>
+      </c>
+      <c r="P12" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>17</v>
+      </c>
+      <c r="R12" s="6">
         <v>18</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="13" t="s">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9">
-        <v>4</v>
-      </c>
-      <c r="E10" s="14">
-        <v>5</v>
-      </c>
-      <c r="F10" s="14">
-        <v>6</v>
-      </c>
-      <c r="G10" s="14">
-        <v>7</v>
-      </c>
-      <c r="H10" s="14">
-        <v>8</v>
-      </c>
-      <c r="I10" s="14">
-        <v>9</v>
-      </c>
-      <c r="J10" s="14">
-        <v>10</v>
-      </c>
-      <c r="K10" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="K13" s="18"/>
+      <c r="L13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="M13" s="18"/>
+      <c r="N13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="O13" s="18"/>
+      <c r="P13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="17"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+  <mergeCells count="19">
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="H9:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
